--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -407,13 +407,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0568750296379162</v>
+        <v>0.0436123049819568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0337383182317404</v>
+        <v>0.019083653967749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.080011741044092</v>
+        <v>0.0681409559961647</v>
       </c>
     </row>
     <row r="3">
@@ -421,13 +421,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06581751978216</v>
+        <v>0.0531128486474015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0325694504296742</v>
+        <v>0.017971696962778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0990655891346459</v>
+        <v>0.088254000332025</v>
       </c>
     </row>
     <row r="4">
@@ -435,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0057626798803184</v>
+        <v>0.00119832579274969</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.082087153844754</v>
+        <v>-0.0787656735741821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0705617940841172</v>
+        <v>0.0811623251596815</v>
       </c>
     </row>
     <row r="5">
@@ -449,13 +449,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0784294100010159</v>
+        <v>0.0540511173859778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007678233311916</v>
+        <v>-0.0209004811205222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.149180586690116</v>
+        <v>0.129002715892478</v>
       </c>
     </row>
     <row r="6">
@@ -463,13 +463,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0661461257835909</v>
+        <v>0.0109083790390346</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0180521780823549</v>
+        <v>-0.078808524563807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.150344429649537</v>
+        <v>0.100625282641876</v>
       </c>
     </row>
     <row r="7">
@@ -477,13 +477,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0907367986050813</v>
+        <v>0.0529192867753305</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0102676599094571</v>
+        <v>-0.0547675567118714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19174125711962</v>
+        <v>0.160606130262532</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.129372153576676</v>
+        <v>0.129460428672861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0350395928277163</v>
+        <v>0.0297698628802134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223704714325636</v>
+        <v>0.229150994465509</v>
       </c>
     </row>
     <row r="9">
@@ -505,13 +505,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0661579590823563</v>
+        <v>0.0808082726394657</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0162500850223269</v>
+        <v>-0.00592646017538637</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148566003187039</v>
+        <v>0.167543005454318</v>
       </c>
     </row>
     <row r="10">
@@ -519,13 +519,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.053097572179553</v>
+        <v>0.0806919758891738</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0625336210876319</v>
+        <v>-0.0405955523514283</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168728765446738</v>
+        <v>0.201979504129776</v>
       </c>
     </row>
     <row r="11">
@@ -533,13 +533,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0424052040522827</v>
+        <v>0.040516322743288</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00713608997900241</v>
+        <v>-0.0119826936379433</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0919464980835678</v>
+        <v>0.0930153391245193</v>
       </c>
     </row>
     <row r="12">
@@ -547,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0544923746237493</v>
+        <v>0.036707291653055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0144800775316272</v>
+        <v>-0.00601192427354733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0945046717158713</v>
+        <v>0.0794265075796573</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0436123049819568</v>
+        <v>0.0427825289134036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019083653967749</v>
+        <v>0.0254219008151137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0681409559961647</v>
+        <v>0.0601431570116935</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0531128486474015</v>
+        <v>0.0465731370810223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.017971696962778</v>
+        <v>0.0217576360884495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.088254000332025</v>
+        <v>0.0713886380735951</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00119832579274969</v>
+        <v>0.0134200841437081</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0787656735741821</v>
+        <v>-0.0436105862232413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0811623251596815</v>
+        <v>0.0704507545106574</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0540511173859778</v>
+        <v>0.0569667855655541</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0209004811205222</v>
+        <v>0.0043499471183831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129002715892478</v>
+        <v>0.109583624012725</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0109083790390346</v>
+        <v>0.0443478060551183</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.078808524563807</v>
+        <v>-0.0180789410262672</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100625282641876</v>
+        <v>0.106774553136504</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0529192867753305</v>
+        <v>0.0498913264863573</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0547675567118714</v>
+        <v>-0.0251966777910511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160606130262532</v>
+        <v>0.124979330763766</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.129460428672861</v>
+        <v>0.0792715060759079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0297698628802134</v>
+        <v>0.00731821685892103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229150994465509</v>
+        <v>0.151224795292895</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0808082726394657</v>
+        <v>0.0461112468869429</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00592646017538637</v>
+        <v>-0.0156013579928429</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167543005454318</v>
+        <v>0.107823851766729</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0806919758891738</v>
+        <v>0.0128815133359227</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0405955523514283</v>
+        <v>-0.0670206126625616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.201979504129776</v>
+        <v>0.0927836393344069</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040516322743288</v>
+        <v>0.0329219968308334</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0119826936379433</v>
+        <v>-0.00418087914622495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0930153391245193</v>
+        <v>0.0700248728078917</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.036707291653055</v>
+        <v>0.0438882524798859</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00601192427354733</v>
+        <v>0.0136493681285979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0794265075796573</v>
+        <v>0.0741271368311739</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427825289134036</v>
+        <v>0.0427825289134035</v>
       </c>
       <c r="C2" t="n">
         <v>0.0254219008151137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0601431570116935</v>
+        <v>0.0601431570116933</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465731370810223</v>
+        <v>0.0465731370810225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0217576360884495</v>
+        <v>0.02175763608845</v>
       </c>
       <c r="D3" t="n">
         <v>0.0713886380735951</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0134200841437081</v>
+        <v>0.0134200841437082</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0436105862232413</v>
+        <v>-0.0436105862232412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0704507545106574</v>
+        <v>0.0704507545106577</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0569667855655541</v>
+        <v>0.0569667855655538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0043499471183831</v>
+        <v>0.0043499471183828</v>
       </c>
       <c r="D5" t="n">
         <v>0.109583624012725</v>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443478060551183</v>
+        <v>0.0443478060551181</v>
       </c>
       <c r="C6" t="n">
         <v>-0.0180789410262672</v>
@@ -504,7 +504,7 @@
         <v>0.0498913264863573</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0251966777910511</v>
+        <v>-0.0251966777910512</v>
       </c>
       <c r="D7" t="n">
         <v>0.124979330763766</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0792715060759079</v>
+        <v>0.0792715060759076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00731821685892103</v>
+        <v>0.00731821685892094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151224795292895</v>
+        <v>0.151224795292894</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0461112468869429</v>
+        <v>0.0461112468869427</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0156013579928429</v>
+        <v>-0.0156013579928428</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107823851766729</v>
+        <v>0.107823851766728</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0128815133359227</v>
+        <v>0.0128815133359226</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0670206126625616</v>
+        <v>-0.0670206126625617</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0927836393344069</v>
+        <v>0.0927836393344068</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329219968308334</v>
+        <v>0.0329219968308335</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00418087914622495</v>
+        <v>-0.00418087914622511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0700248728078917</v>
+        <v>0.0700248728078922</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0438882524798859</v>
+        <v>0.0438882524798862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0136493681285979</v>
+        <v>0.0136493681285983</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0741271368311739</v>
+        <v>0.0741271368311741</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427825289134035</v>
+        <v>0.0429610587287474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0254219008151137</v>
+        <v>0.0255852150655959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0601431570116933</v>
+        <v>0.0603369023918989</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465731370810225</v>
+        <v>0.0465731370810222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02175763608845</v>
+        <v>0.0217576360884495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0713886380735951</v>
+        <v>0.0713886380735949</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0569667855655538</v>
+        <v>0.0569667855655539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0043499471183828</v>
+        <v>0.00434994711838287</v>
       </c>
       <c r="D5" t="n">
         <v>0.109583624012725</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443478060551181</v>
+        <v>0.044347806055118</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0180789410262672</v>
+        <v>-0.0180789410262675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106774553136504</v>
+        <v>0.106774553136503</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0498913264863573</v>
+        <v>0.0498913264863576</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0251966777910512</v>
+        <v>-0.025196677791051</v>
       </c>
       <c r="D7" t="n">
         <v>0.124979330763766</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0792715060759076</v>
+        <v>0.0792715060759077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00731821685892094</v>
+        <v>0.00731821685892084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151224795292894</v>
+        <v>0.151224795292895</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0461112468869427</v>
+        <v>0.0461112468869428</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0156013579928428</v>
+        <v>-0.0156013579928429</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107823851766728</v>
+        <v>0.107823851766729</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>0.0128815133359226</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0670206126625617</v>
+        <v>-0.0670206126625618</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0927836393344068</v>
+        <v>0.0927836393344069</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329219968308335</v>
+        <v>0.032877024243997</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00418087914622511</v>
+        <v>-0.00422627990935685</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0700248728078922</v>
+        <v>0.0699803283973508</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0438882524798862</v>
+        <v>0.0443679478200813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0136493681285983</v>
+        <v>0.0140991238729835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0741271368311741</v>
+        <v>0.0746367717671791</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429610587287474</v>
+        <v>0.0429610587287471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0255852150655959</v>
+        <v>0.0255852150655958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0603369023918989</v>
+        <v>0.0603369023918985</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465731370810222</v>
+        <v>0.0465731370810216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0217576360884495</v>
+        <v>0.0217576360884491</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0713886380735949</v>
+        <v>0.071388638073594</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0134200841437082</v>
+        <v>0.013420084143708</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0436105862232412</v>
+        <v>-0.0436105862232414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0704507545106577</v>
+        <v>0.0704507545106575</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0569667855655539</v>
+        <v>0.0569667855655538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00434994711838287</v>
+        <v>0.00434994711838309</v>
       </c>
       <c r="D5" t="n">
         <v>0.109583624012725</v>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.044347806055118</v>
+        <v>0.0443478060551181</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0180789410262675</v>
+        <v>-0.018078941026267</v>
       </c>
       <c r="D6" t="n">
         <v>0.106774553136503</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0498913264863576</v>
+        <v>0.0498913264863574</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.025196677791051</v>
+        <v>-0.0251966777910513</v>
       </c>
       <c r="D7" t="n">
         <v>0.124979330763766</v>
@@ -521,10 +521,10 @@
         <v>0.0792715060759077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00731821685892084</v>
+        <v>0.00731821685892095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151224795292895</v>
+        <v>0.151224795292894</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0461112468869428</v>
+        <v>0.0461112468869427</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0156013579928429</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107823851766729</v>
+        <v>0.107823851766728</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0128815133359226</v>
+        <v>0.0128815133359225</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0670206126625618</v>
+        <v>-0.0670206126625617</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0927836393344069</v>
+        <v>0.0927836393344068</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.032877024243997</v>
+        <v>0.0328770242439968</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00422627990935685</v>
+        <v>-0.00422627990935694</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0699803283973508</v>
+        <v>0.0699803283973505</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,10 +589,10 @@
         <v>0.0443679478200813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0140991238729835</v>
+        <v>0.0140991238729832</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0746367717671791</v>
+        <v>0.0746367717671793</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429610587287471</v>
+        <v>0.0500300130567693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0255852150655958</v>
+        <v>0.0300934696843233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0603369023918985</v>
+        <v>0.0699665564292152</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465731370810216</v>
+        <v>0.0494749058422038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0217576360884491</v>
+        <v>0.0209438119743707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.071388638073594</v>
+        <v>0.078005999710037</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.013420084143708</v>
+        <v>0.0351458270008035</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0436105862232414</v>
+        <v>-0.0310424770037282</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0704507545106575</v>
+        <v>0.101334131005335</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0569667855655538</v>
+        <v>0.0513447964753249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00434994711838309</v>
+        <v>-0.00971760976775123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.109583624012725</v>
+        <v>0.112407202718401</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443478060551181</v>
+        <v>0.0668356512972282</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.018078941026267</v>
+        <v>-0.00536617662530695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106774553136503</v>
+        <v>0.139037479219763</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0498913264863574</v>
+        <v>0.0516349359880249</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0251966777910513</v>
+        <v>-0.0332756002361693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.124979330763766</v>
+        <v>0.136545472212219</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0792715060759077</v>
+        <v>0.0840396832373389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00731821685892095</v>
+        <v>0.00242124886486354</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151224795292894</v>
+        <v>0.165658117609814</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0461112468869427</v>
+        <v>0.0386015429893046</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0156013579928429</v>
+        <v>-0.0323194988062319</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107823851766728</v>
+        <v>0.109522584784841</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0128815133359225</v>
+        <v>-0.0482998851595044</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0670206126625617</v>
+        <v>-0.142334971146049</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0927836393344068</v>
+        <v>0.0457352008270404</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0328770242439968</v>
+        <v>0.0500674150107449</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00422627990935694</v>
+        <v>0.00753912212516911</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0699803283973505</v>
+        <v>0.0925957078963206</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0443679478200813</v>
+        <v>0.0520533860892854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0140991238729832</v>
+        <v>0.0173019566322989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0746367717671793</v>
+        <v>0.086804815546272</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0500300130567693</v>
+        <v>0.0505226063280933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0300934696843233</v>
+        <v>0.0305571626541791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0699665564292152</v>
+        <v>0.0704880500020076</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0494749058422038</v>
+        <v>0.0496429176403938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209438119743707</v>
+        <v>0.0210893633213925</v>
       </c>
       <c r="D3" t="n">
-        <v>0.078005999710037</v>
+        <v>0.0781964719593952</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351458270008035</v>
+        <v>0.0377630301667813</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0310424770037282</v>
+        <v>-0.0285067015425056</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101334131005335</v>
+        <v>0.104032761876068</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0513447964753249</v>
+        <v>0.0534519962921756</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00971760976775123</v>
+        <v>-0.00758908356310851</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112407202718401</v>
+        <v>0.11449307614746</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0668356512972282</v>
+        <v>0.066725485999393</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00536617662530695</v>
+        <v>-0.0052701817382823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139037479219763</v>
+        <v>0.138721153737068</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0516349359880249</v>
+        <v>0.046066572346303</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0332756002361693</v>
+        <v>-0.0389047339674029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136545472212219</v>
+        <v>0.131037878660009</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0840396832373389</v>
+        <v>0.0850988038100826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00242124886486354</v>
+        <v>0.00344327531969565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.165658117609814</v>
+        <v>0.16675433230047</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0386015429893046</v>
+        <v>0.0359379481173597</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0323194988062319</v>
+        <v>-0.0348042208316245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109522584784841</v>
+        <v>0.106680117066344</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0482998851595044</v>
+        <v>-0.0489195493091344</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.142334971146049</v>
+        <v>-0.14178199899326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0457352008270404</v>
+        <v>0.0439429003749911</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0500674150107449</v>
+        <v>0.0516888230035168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00753912212516911</v>
+        <v>0.00921978706089142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0925957078963206</v>
+        <v>0.0941578589461421</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0520533860892854</v>
+        <v>0.0521520781892187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0173019566322989</v>
+        <v>0.0173558131504636</v>
       </c>
       <c r="D12" t="n">
-        <v>0.086804815546272</v>
+        <v>0.0869483432279739</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
